--- a/Datos_2020_2021/Comp SComún_2019-2020 CS-FT.xlsx
+++ b/Datos_2020_2021/Comp SComún_2019-2020 CS-FT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\TRABAJO\1PROYECTOS\SEG_R-PelagicosZCS\SEG_PEL_ZCS_2020\Para Estatus Anchoveta\Feb_2021\Enviado en feb 2021\Sardina comun_2020(febrero2021)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2021/SARDINA_COMUN/INFORME_FINAL/Datos_2020_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65132408-CFA9-438A-B504-686C066525AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4449307D-192D-6D4B-AF4F-667FBD0249FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27220" yWindow="500" windowWidth="23980" windowHeight="27280" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AÑO 2019-2020" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'CS3'!$B$1:$J$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'CS4'!$B$1:$J$49</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -801,7 +812,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1184,7 +1195,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1567,7 +1578,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1950,7 +1961,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2332,7 +2343,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4969,26 +4980,26 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="24.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="3" customWidth="1"/>
-    <col min="4" max="8" width="23.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="20.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.81640625" style="1" customWidth="1"/>
-    <col min="13" max="17" width="11.54296875" style="1"/>
-    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.6328125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
+    <col min="4" max="8" width="23.85546875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" style="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5703125" style="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.5703125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="68"/>
       <c r="B1" s="86" t="s">
         <v>39</v>
@@ -5006,7 +5017,7 @@
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
-    <row r="2" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="68"/>
       <c r="B2" s="86" t="s">
         <v>33</v>
@@ -5024,7 +5035,7 @@
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="62"/>
       <c r="B3" s="69"/>
       <c r="C3" s="63"/>
@@ -5040,7 +5051,7 @@
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70"/>
       <c r="B4" s="30"/>
       <c r="C4" s="73"/>
@@ -5056,7 +5067,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="32" t="s">
         <v>0</v>
@@ -5086,7 +5097,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="32" t="s">
         <v>3</v>
@@ -5134,7 +5145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="36"/>
       <c r="C7" s="75"/>
@@ -5158,7 +5169,7 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="38">
         <v>3</v>
@@ -5215,7 +5226,7 @@
       </c>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="38">
         <v>3.5</v>
@@ -5271,7 +5282,7 @@
       </c>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="38">
         <v>4</v>
@@ -5327,7 +5338,7 @@
       </c>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="38">
         <v>4.5</v>
@@ -5383,7 +5394,7 @@
       </c>
       <c r="W11" s="18"/>
     </row>
-    <row r="12" spans="1:23" ht="25.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="38">
         <v>5</v>
@@ -5425,7 +5436,7 @@
       <c r="V12" s="23"/>
       <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="38">
         <v>5.5</v>
@@ -5459,7 +5470,7 @@
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="38">
         <v>6</v>
@@ -5493,7 +5504,7 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="38">
         <v>6.5</v>
@@ -5527,7 +5538,7 @@
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="38">
         <v>7</v>
@@ -5564,7 +5575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="38">
         <v>7.5</v>
@@ -5603,7 +5614,7 @@
       </c>
       <c r="N17" s="27"/>
     </row>
-    <row r="18" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="38">
         <v>8</v>
@@ -5642,7 +5653,7 @@
       </c>
       <c r="N18" s="27"/>
     </row>
-    <row r="19" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="38">
         <v>8.5</v>
@@ -5681,7 +5692,7 @@
       </c>
       <c r="N19" s="27"/>
     </row>
-    <row r="20" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="38">
         <v>9</v>
@@ -5718,7 +5729,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="38">
         <v>9.5</v>
@@ -5752,7 +5763,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="38">
         <v>10</v>
@@ -5786,7 +5797,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
     </row>
-    <row r="23" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="38">
         <v>10.5</v>
@@ -5820,7 +5831,7 @@
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
     </row>
-    <row r="24" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="38">
         <v>11</v>
@@ -5854,7 +5865,7 @@
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="25" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="38">
         <v>11.5</v>
@@ -5888,7 +5899,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="38">
         <v>12</v>
@@ -5922,7 +5933,7 @@
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
     </row>
-    <row r="27" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="38">
         <v>12.5</v>
@@ -5956,7 +5967,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="38">
         <v>13</v>
@@ -5990,7 +6001,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="38">
         <v>13.5</v>
@@ -6024,7 +6035,7 @@
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
     </row>
-    <row r="30" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="38">
         <v>14</v>
@@ -6058,7 +6069,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="38">
         <v>14.5</v>
@@ -6092,7 +6103,7 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="38">
         <v>15</v>
@@ -6126,7 +6137,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="38">
         <v>15.5</v>
@@ -6160,7 +6171,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="38">
         <v>16</v>
@@ -6194,7 +6205,7 @@
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="38">
         <v>16.5</v>
@@ -6228,7 +6239,7 @@
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="38">
         <v>17</v>
@@ -6262,7 +6273,7 @@
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
     </row>
-    <row r="37" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="38">
         <v>17.5</v>
@@ -6296,7 +6307,7 @@
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
     </row>
-    <row r="38" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="38">
         <v>18</v>
@@ -6330,7 +6341,7 @@
       <c r="M38" s="43"/>
       <c r="N38" s="43"/>
     </row>
-    <row r="39" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="38">
         <v>18.5</v>
@@ -6364,7 +6375,7 @@
       <c r="M39" s="43"/>
       <c r="N39" s="43"/>
     </row>
-    <row r="40" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="38">
         <v>19</v>
@@ -6384,7 +6395,7 @@
       <c r="M40" s="43"/>
       <c r="N40" s="43"/>
     </row>
-    <row r="41" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="38">
         <v>19.5</v>
@@ -6404,7 +6415,7 @@
       <c r="M41" s="43"/>
       <c r="N41" s="43"/>
     </row>
-    <row r="42" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="44"/>
       <c r="C42" s="77"/>
@@ -6420,7 +6431,7 @@
       <c r="M42" s="43"/>
       <c r="N42" s="43"/>
     </row>
-    <row r="43" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="71" t="s">
         <v>23</v>
@@ -6454,7 +6465,7 @@
       <c r="M43" s="43"/>
       <c r="N43" s="43"/>
     </row>
-    <row r="44" spans="1:14" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="38" t="s">
         <v>24</v>
@@ -6488,7 +6499,7 @@
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="38" t="s">
         <v>25</v>
@@ -6522,7 +6533,7 @@
       <c r="M45" s="43"/>
       <c r="N45" s="43"/>
     </row>
-    <row r="46" spans="1:14" s="26" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" s="26" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="51" t="s">
         <v>26</v>
@@ -6556,7 +6567,7 @@
       <c r="M46" s="43"/>
       <c r="N46" s="43"/>
     </row>
-    <row r="47" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="53" t="s">
         <v>27</v>
@@ -6590,7 +6601,7 @@
       <c r="M47" s="43"/>
       <c r="N47" s="43"/>
     </row>
-    <row r="48" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="46" t="s">
         <v>28</v>
@@ -6624,7 +6635,7 @@
       <c r="M48" s="43"/>
       <c r="N48" s="43"/>
     </row>
-    <row r="49" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="44" t="s">
         <v>24</v>
@@ -6656,7 +6667,7 @@
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
     </row>
-    <row r="50" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
@@ -6672,7 +6683,7 @@
       <c r="M50" s="27"/>
       <c r="N50" s="27"/>
     </row>
-    <row r="51" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27" t="s">
@@ -6693,7 +6704,7 @@
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
     </row>
-    <row r="52" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27" t="s">
@@ -6729,7 +6740,7 @@
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
     </row>
-    <row r="53" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27">
@@ -6748,7 +6759,7 @@
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
     </row>
-    <row r="54" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="47">
@@ -6785,7 +6796,7 @@
       <c r="M54" s="27"/>
       <c r="N54" s="27"/>
     </row>
-    <row r="55" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="59" t="s">
         <v>32</v>
@@ -6833,7 +6844,7 @@
       <c r="M55" s="27"/>
       <c r="N55" s="27"/>
     </row>
-    <row r="56" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="59"/>
       <c r="C56" s="27" t="s">
@@ -6875,7 +6886,7 @@
       <c r="M56" s="27"/>
       <c r="N56" s="27"/>
     </row>
-    <row r="57" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="59"/>
       <c r="C57" s="27"/>
@@ -6897,7 +6908,7 @@
       <c r="M57" s="27"/>
       <c r="N57" s="27"/>
     </row>
-    <row r="58" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="59"/>
       <c r="C58" s="27"/>
@@ -6913,7 +6924,7 @@
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
     </row>
-    <row r="59" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="59"/>
       <c r="C59" s="27"/>
@@ -6929,7 +6940,7 @@
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
     </row>
-    <row r="60" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="59"/>
       <c r="C60" s="47">
@@ -6960,7 +6971,7 @@
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
     </row>
-    <row r="61" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="59"/>
       <c r="C61" s="27" t="s">
@@ -6980,7 +6991,7 @@
       <c r="M61" s="27"/>
       <c r="N61" s="27"/>
     </row>
-    <row r="62" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="59"/>
       <c r="C62" s="27" t="s">
@@ -7000,7 +7011,7 @@
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
     </row>
-    <row r="63" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="59"/>
       <c r="C63" s="27"/>
@@ -7016,7 +7027,7 @@
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
     </row>
-    <row r="64" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
@@ -7060,23 +7071,23 @@
       <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="24.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="3" customWidth="1"/>
-    <col min="4" max="8" width="23.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="20.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="1"/>
-    <col min="12" max="12" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="11.54296875" style="1"/>
-    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.6328125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
+    <col min="4" max="8" width="23.85546875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1"/>
+    <col min="12" max="12" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5703125" style="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.5703125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="87" t="s">
         <v>40</v>
@@ -7094,7 +7105,7 @@
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
-    <row r="2" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="87" t="s">
         <v>34</v>
@@ -7112,7 +7123,7 @@
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="27"/>
@@ -7128,7 +7139,7 @@
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="64"/>
       <c r="C4" s="85"/>
@@ -7144,7 +7155,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="32" t="s">
         <v>0</v>
@@ -7174,7 +7185,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="32" t="s">
         <v>3</v>
@@ -7222,7 +7233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="36"/>
       <c r="C7" s="75"/>
@@ -7250,7 +7261,7 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="38">
         <v>3</v>
@@ -7305,7 +7316,7 @@
       </c>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="38">
         <v>3.5</v>
@@ -7359,7 +7370,7 @@
       </c>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="38">
         <v>4</v>
@@ -7413,7 +7424,7 @@
       </c>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="38">
         <v>4.5</v>
@@ -7467,7 +7478,7 @@
       </c>
       <c r="W11" s="18"/>
     </row>
-    <row r="12" spans="1:23" ht="25.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="38">
         <v>5</v>
@@ -7507,7 +7518,7 @@
       <c r="V12" s="23"/>
       <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="38">
         <v>5.5</v>
@@ -7539,7 +7550,7 @@
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="38">
         <v>6</v>
@@ -7571,7 +7582,7 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="38">
         <v>6.5</v>
@@ -7603,7 +7614,7 @@
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="38">
         <v>7</v>
@@ -7638,7 +7649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="38">
         <v>7.5</v>
@@ -7675,7 +7686,7 @@
       </c>
       <c r="N17" s="27"/>
     </row>
-    <row r="18" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="38">
         <v>8</v>
@@ -7712,7 +7723,7 @@
       </c>
       <c r="N18" s="27"/>
     </row>
-    <row r="19" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="38">
         <v>8.5</v>
@@ -7749,7 +7760,7 @@
       </c>
       <c r="N19" s="27"/>
     </row>
-    <row r="20" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="38">
         <v>9</v>
@@ -7784,7 +7795,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="38">
         <v>9.5</v>
@@ -7816,7 +7827,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="38">
         <v>10</v>
@@ -7848,7 +7859,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
     </row>
-    <row r="23" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="38">
         <v>10.5</v>
@@ -7880,7 +7891,7 @@
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
     </row>
-    <row r="24" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="38">
         <v>11</v>
@@ -7912,7 +7923,7 @@
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="25" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="38">
         <v>11.5</v>
@@ -7944,7 +7955,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="38">
         <v>12</v>
@@ -7976,7 +7987,7 @@
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
     </row>
-    <row r="27" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="38">
         <v>12.5</v>
@@ -8008,7 +8019,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="38">
         <v>13</v>
@@ -8040,7 +8051,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="38">
         <v>13.5</v>
@@ -8072,7 +8083,7 @@
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
     </row>
-    <row r="30" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="38">
         <v>14</v>
@@ -8104,7 +8115,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="38">
         <v>14.5</v>
@@ -8136,7 +8147,7 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="38">
         <v>15</v>
@@ -8168,7 +8179,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="38">
         <v>15.5</v>
@@ -8200,7 +8211,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="38">
         <v>16</v>
@@ -8232,7 +8243,7 @@
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="38">
         <v>16.5</v>
@@ -8262,7 +8273,7 @@
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="38">
         <v>17</v>
@@ -8292,7 +8303,7 @@
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
     </row>
-    <row r="37" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="38">
         <v>17.5</v>
@@ -8322,7 +8333,7 @@
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
     </row>
-    <row r="38" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="38">
         <v>18</v>
@@ -8342,7 +8353,7 @@
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
     </row>
-    <row r="39" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="38">
         <v>18.5</v>
@@ -8362,7 +8373,7 @@
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
     </row>
-    <row r="40" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="38">
         <v>19</v>
@@ -8382,7 +8393,7 @@
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
     </row>
-    <row r="41" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="38">
         <v>19.5</v>
@@ -8400,7 +8411,7 @@
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
     </row>
-    <row r="42" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="44"/>
       <c r="C42" s="77"/>
@@ -8416,7 +8427,7 @@
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
     </row>
-    <row r="43" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="46" t="s">
         <v>23</v>
@@ -8448,7 +8459,7 @@
       <c r="M43" s="27"/>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="38" t="s">
         <v>24</v>
@@ -8480,7 +8491,7 @@
       <c r="M44" s="47"/>
       <c r="N44" s="47"/>
     </row>
-    <row r="45" spans="1:14" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="38" t="s">
         <v>25</v>
@@ -8512,7 +8523,7 @@
       <c r="M45" s="47"/>
       <c r="N45" s="47"/>
     </row>
-    <row r="46" spans="1:14" s="26" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" s="26" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="51" t="s">
         <v>26</v>
@@ -8544,7 +8555,7 @@
       <c r="M46" s="50"/>
       <c r="N46" s="50"/>
     </row>
-    <row r="47" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="53" t="s">
         <v>27</v>
@@ -8576,7 +8587,7 @@
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
     </row>
-    <row r="48" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="46" t="s">
         <v>28</v>
@@ -8608,7 +8619,7 @@
       <c r="M48" s="27"/>
       <c r="N48" s="27"/>
     </row>
-    <row r="49" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="44" t="s">
         <v>24</v>
@@ -8638,7 +8649,7 @@
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
     </row>
-    <row r="50" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
@@ -8654,7 +8665,7 @@
       <c r="M50" s="27"/>
       <c r="N50" s="27"/>
     </row>
-    <row r="51" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27" t="s">
@@ -8672,7 +8683,7 @@
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
     </row>
-    <row r="52" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27" t="s">
@@ -8708,7 +8719,7 @@
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
     </row>
-    <row r="53" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27">
@@ -8727,7 +8738,7 @@
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
     </row>
-    <row r="54" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="47">
@@ -8764,7 +8775,7 @@
       <c r="M54" s="27"/>
       <c r="N54" s="27"/>
     </row>
-    <row r="55" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="59">
         <v>2016</v>
@@ -8815,7 +8826,7 @@
       </c>
       <c r="N55" s="27"/>
     </row>
-    <row r="56" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="59"/>
       <c r="C56" s="27" t="s">
@@ -8857,7 +8868,7 @@
       <c r="M56" s="27"/>
       <c r="N56" s="27"/>
     </row>
-    <row r="57" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="59"/>
       <c r="C57" s="27"/>
@@ -8879,7 +8890,7 @@
       <c r="M57" s="27"/>
       <c r="N57" s="27"/>
     </row>
-    <row r="58" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="59"/>
       <c r="C58" s="27"/>
@@ -8895,7 +8906,7 @@
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
     </row>
-    <row r="59" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="59"/>
       <c r="C59" s="27"/>
@@ -8911,7 +8922,7 @@
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
     </row>
-    <row r="60" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="59"/>
       <c r="C60" s="47">
@@ -8942,7 +8953,7 @@
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
     </row>
-    <row r="61" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="59"/>
       <c r="C61" s="27" t="s">
@@ -8962,7 +8973,7 @@
       <c r="M61" s="27"/>
       <c r="N61" s="27"/>
     </row>
-    <row r="62" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="59"/>
       <c r="C62" s="27" t="s">
@@ -8982,7 +8993,7 @@
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
     </row>
-    <row r="63" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="59"/>
       <c r="C63" s="27"/>
@@ -8998,7 +9009,7 @@
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
     </row>
-    <row r="64" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
@@ -9040,23 +9051,23 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="35" zoomScaleNormal="35" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="24.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="3" customWidth="1"/>
-    <col min="4" max="8" width="23.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="20.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="1"/>
-    <col min="12" max="12" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="11.54296875" style="1"/>
-    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.6328125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
+    <col min="4" max="8" width="23.85546875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1"/>
+    <col min="12" max="12" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5703125" style="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.5703125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="87" t="s">
         <v>41</v>
@@ -9074,7 +9085,7 @@
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
-    <row r="2" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="87" t="s">
         <v>35</v>
@@ -9092,7 +9103,7 @@
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="27"/>
@@ -9108,7 +9119,7 @@
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="64"/>
       <c r="C4" s="85"/>
@@ -9124,7 +9135,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="32" t="s">
         <v>0</v>
@@ -9154,7 +9165,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="32" t="s">
         <v>3</v>
@@ -9202,7 +9213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="36"/>
       <c r="C7" s="75"/>
@@ -9230,7 +9241,7 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="38">
         <v>3</v>
@@ -9285,7 +9296,7 @@
       </c>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="38">
         <v>3.5</v>
@@ -9337,7 +9348,7 @@
       </c>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="38">
         <v>4</v>
@@ -9389,7 +9400,7 @@
       </c>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="38">
         <v>4.5</v>
@@ -9441,7 +9452,7 @@
       </c>
       <c r="W11" s="18"/>
     </row>
-    <row r="12" spans="1:23" ht="25.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="38">
         <v>5</v>
@@ -9479,7 +9490,7 @@
       <c r="V12" s="23"/>
       <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="38">
         <v>5.5</v>
@@ -9509,7 +9520,7 @@
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="38">
         <v>6</v>
@@ -9539,7 +9550,7 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="38">
         <v>6.5</v>
@@ -9569,7 +9580,7 @@
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="38">
         <v>7</v>
@@ -9602,7 +9613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="38">
         <v>7.5</v>
@@ -9637,7 +9648,7 @@
       </c>
       <c r="N17" s="27"/>
     </row>
-    <row r="18" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="38">
         <v>8</v>
@@ -9672,7 +9683,7 @@
       </c>
       <c r="N18" s="27"/>
     </row>
-    <row r="19" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="38">
         <v>8.5</v>
@@ -9707,7 +9718,7 @@
       </c>
       <c r="N19" s="27"/>
     </row>
-    <row r="20" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="38">
         <v>9</v>
@@ -9740,7 +9751,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="38">
         <v>9.5</v>
@@ -9770,7 +9781,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="38">
         <v>10</v>
@@ -9800,7 +9811,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
     </row>
-    <row r="23" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="38">
         <v>10.5</v>
@@ -9830,7 +9841,7 @@
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
     </row>
-    <row r="24" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="38">
         <v>11</v>
@@ -9860,7 +9871,7 @@
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="25" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="38">
         <v>11.5</v>
@@ -9890,7 +9901,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="38">
         <v>12</v>
@@ -9920,7 +9931,7 @@
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
     </row>
-    <row r="27" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="38">
         <v>12.5</v>
@@ -9950,7 +9961,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="38">
         <v>13</v>
@@ -9980,7 +9991,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="38">
         <v>13.5</v>
@@ -10010,7 +10021,7 @@
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
     </row>
-    <row r="30" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="38">
         <v>14</v>
@@ -10040,7 +10051,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="38">
         <v>14.5</v>
@@ -10070,7 +10081,7 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="38">
         <v>15</v>
@@ -10100,7 +10111,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="38">
         <v>15.5</v>
@@ -10130,7 +10141,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="38">
         <v>16</v>
@@ -10160,7 +10171,7 @@
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="38">
         <v>16.5</v>
@@ -10190,7 +10201,7 @@
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="38">
         <v>17</v>
@@ -10220,7 +10231,7 @@
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
     </row>
-    <row r="37" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="38">
         <v>17.5</v>
@@ -10250,7 +10261,7 @@
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
     </row>
-    <row r="38" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="38">
         <v>18</v>
@@ -10280,7 +10291,7 @@
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
     </row>
-    <row r="39" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="38">
         <v>18.5</v>
@@ -10310,7 +10321,7 @@
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
     </row>
-    <row r="40" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="38">
         <v>19</v>
@@ -10328,7 +10339,7 @@
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
     </row>
-    <row r="41" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="38">
         <v>19.5</v>
@@ -10346,7 +10357,7 @@
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
     </row>
-    <row r="42" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="44"/>
       <c r="C42" s="77"/>
@@ -10362,7 +10373,7 @@
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
     </row>
-    <row r="43" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="46" t="s">
         <v>23</v>
@@ -10392,7 +10403,7 @@
       <c r="M43" s="27"/>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="38" t="s">
         <v>24</v>
@@ -10422,7 +10433,7 @@
       <c r="M44" s="47"/>
       <c r="N44" s="47"/>
     </row>
-    <row r="45" spans="1:14" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="38" t="s">
         <v>25</v>
@@ -10452,7 +10463,7 @@
       <c r="M45" s="47"/>
       <c r="N45" s="47"/>
     </row>
-    <row r="46" spans="1:14" s="26" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" s="26" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="51" t="s">
         <v>26</v>
@@ -10482,7 +10493,7 @@
       <c r="M46" s="50"/>
       <c r="N46" s="50"/>
     </row>
-    <row r="47" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="53" t="s">
         <v>27</v>
@@ -10512,7 +10523,7 @@
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
     </row>
-    <row r="48" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="46" t="s">
         <v>28</v>
@@ -10542,7 +10553,7 @@
       <c r="M48" s="27"/>
       <c r="N48" s="27"/>
     </row>
-    <row r="49" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="44" t="s">
         <v>24</v>
@@ -10572,7 +10583,7 @@
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
     </row>
-    <row r="50" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
@@ -10588,7 +10599,7 @@
       <c r="M50" s="27"/>
       <c r="N50" s="27"/>
     </row>
-    <row r="51" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27" t="s">
@@ -10606,7 +10617,7 @@
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
     </row>
-    <row r="52" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27" t="s">
@@ -10642,7 +10653,7 @@
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
     </row>
-    <row r="53" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27">
@@ -10661,7 +10672,7 @@
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
     </row>
-    <row r="54" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="47">
@@ -10698,7 +10709,7 @@
       <c r="M54" s="27"/>
       <c r="N54" s="27"/>
     </row>
-    <row r="55" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="59">
         <v>2016</v>
@@ -10749,7 +10760,7 @@
       </c>
       <c r="N55" s="27"/>
     </row>
-    <row r="56" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="59"/>
       <c r="C56" s="27" t="s">
@@ -10791,7 +10802,7 @@
       <c r="M56" s="27"/>
       <c r="N56" s="27"/>
     </row>
-    <row r="57" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="59"/>
       <c r="C57" s="27"/>
@@ -10813,7 +10824,7 @@
       <c r="M57" s="27"/>
       <c r="N57" s="27"/>
     </row>
-    <row r="58" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="59"/>
       <c r="C58" s="27"/>
@@ -10829,7 +10840,7 @@
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
     </row>
-    <row r="59" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="59"/>
       <c r="C59" s="27"/>
@@ -10845,7 +10856,7 @@
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
     </row>
-    <row r="60" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="59"/>
       <c r="C60" s="47">
@@ -10876,7 +10887,7 @@
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
     </row>
-    <row r="61" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="59"/>
       <c r="C61" s="27" t="s">
@@ -10897,7 +10908,7 @@
       </c>
       <c r="N61" s="27"/>
     </row>
-    <row r="62" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="59"/>
       <c r="C62" s="27" t="s">
@@ -10915,7 +10926,7 @@
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
     </row>
-    <row r="63" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="59"/>
       <c r="C63" s="27"/>
@@ -10931,7 +10942,7 @@
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
     </row>
-    <row r="64" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
@@ -10973,24 +10984,24 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="35" zoomScaleNormal="35" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="24.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="3" customWidth="1"/>
-    <col min="4" max="8" width="23.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="20.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="1"/>
-    <col min="12" max="12" width="22.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="11.54296875" style="1"/>
-    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.6328125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
+    <col min="4" max="8" width="23.85546875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1"/>
+    <col min="12" max="12" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5703125" style="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.5703125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="87" t="s">
         <v>42</v>
@@ -11008,7 +11019,7 @@
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
-    <row r="2" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="87" t="s">
         <v>36</v>
@@ -11026,7 +11037,7 @@
       <c r="M2" s="43"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="27"/>
@@ -11042,7 +11053,7 @@
       <c r="M3" s="43"/>
       <c r="N3" s="27"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="64"/>
       <c r="C4" s="85"/>
@@ -11058,7 +11069,7 @@
       <c r="M4" s="43"/>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="32" t="s">
         <v>0</v>
@@ -11088,7 +11099,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="32" t="s">
         <v>3</v>
@@ -11136,7 +11147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="36"/>
       <c r="C7" s="75"/>
@@ -11164,7 +11175,7 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="38">
         <v>3</v>
@@ -11217,7 +11228,7 @@
       </c>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="38">
         <v>3.5</v>
@@ -11267,7 +11278,7 @@
       </c>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="38">
         <v>4</v>
@@ -11317,7 +11328,7 @@
       </c>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="38">
         <v>4.5</v>
@@ -11367,7 +11378,7 @@
       </c>
       <c r="W11" s="18"/>
     </row>
-    <row r="12" spans="1:23" ht="25.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="38">
         <v>5</v>
@@ -11403,7 +11414,7 @@
       <c r="V12" s="23"/>
       <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="38">
         <v>5.5</v>
@@ -11431,7 +11442,7 @@
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="38">
         <v>6</v>
@@ -11459,7 +11470,7 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="38">
         <v>6.5</v>
@@ -11487,7 +11498,7 @@
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="38">
         <v>7</v>
@@ -11518,7 +11529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="38">
         <v>7.5</v>
@@ -11551,7 +11562,7 @@
       </c>
       <c r="N17" s="27"/>
     </row>
-    <row r="18" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="38">
         <v>8</v>
@@ -11584,7 +11595,7 @@
       </c>
       <c r="N18" s="27"/>
     </row>
-    <row r="19" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="38">
         <v>8.5</v>
@@ -11617,7 +11628,7 @@
       </c>
       <c r="N19" s="27"/>
     </row>
-    <row r="20" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="38">
         <v>9</v>
@@ -11648,7 +11659,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="38">
         <v>9.5</v>
@@ -11676,7 +11687,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="38">
         <v>10</v>
@@ -11704,7 +11715,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
     </row>
-    <row r="23" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="38">
         <v>10.5</v>
@@ -11732,7 +11743,7 @@
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
     </row>
-    <row r="24" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="38">
         <v>11</v>
@@ -11760,7 +11771,7 @@
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="25" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="38">
         <v>11.5</v>
@@ -11788,7 +11799,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="38">
         <v>12</v>
@@ -11816,7 +11827,7 @@
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
     </row>
-    <row r="27" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="38">
         <v>12.5</v>
@@ -11844,7 +11855,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="38">
         <v>13</v>
@@ -11872,7 +11883,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="38">
         <v>13.5</v>
@@ -11900,7 +11911,7 @@
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
     </row>
-    <row r="30" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="38">
         <v>14</v>
@@ -11928,7 +11939,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="38">
         <v>14.5</v>
@@ -11956,7 +11967,7 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="38">
         <v>15</v>
@@ -11984,7 +11995,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="38">
         <v>15.5</v>
@@ -12012,7 +12023,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="38">
         <v>16</v>
@@ -12040,7 +12051,7 @@
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="38">
         <v>16.5</v>
@@ -12068,7 +12079,7 @@
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="38">
         <v>17</v>
@@ -12096,7 +12107,7 @@
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
     </row>
-    <row r="37" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="38">
         <v>17.5</v>
@@ -12124,7 +12135,7 @@
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
     </row>
-    <row r="38" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="38">
         <v>18</v>
@@ -12142,7 +12153,7 @@
       <c r="M38" s="43"/>
       <c r="N38" s="27"/>
     </row>
-    <row r="39" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="38">
         <v>18.5</v>
@@ -12160,7 +12171,7 @@
       <c r="M39" s="43"/>
       <c r="N39" s="27"/>
     </row>
-    <row r="40" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="38">
         <v>19</v>
@@ -12178,7 +12189,7 @@
       <c r="M40" s="43"/>
       <c r="N40" s="27"/>
     </row>
-    <row r="41" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="38">
         <v>19.5</v>
@@ -12196,7 +12207,7 @@
       <c r="M41" s="43"/>
       <c r="N41" s="27"/>
     </row>
-    <row r="42" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="44"/>
       <c r="C42" s="77"/>
@@ -12212,7 +12223,7 @@
       <c r="M42" s="43"/>
       <c r="N42" s="27"/>
     </row>
-    <row r="43" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="46" t="s">
         <v>23</v>
@@ -12240,7 +12251,7 @@
       <c r="M43" s="43"/>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="38" t="s">
         <v>24</v>
@@ -12268,7 +12279,7 @@
       <c r="M44" s="43"/>
       <c r="N44" s="47"/>
     </row>
-    <row r="45" spans="1:14" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="38" t="s">
         <v>25</v>
@@ -12296,7 +12307,7 @@
       <c r="M45" s="43"/>
       <c r="N45" s="47"/>
     </row>
-    <row r="46" spans="1:14" s="26" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" s="26" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="51" t="s">
         <v>26</v>
@@ -12324,7 +12335,7 @@
       <c r="M46" s="43"/>
       <c r="N46" s="50"/>
     </row>
-    <row r="47" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="53" t="s">
         <v>27</v>
@@ -12352,7 +12363,7 @@
       <c r="M47" s="43"/>
       <c r="N47" s="27"/>
     </row>
-    <row r="48" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="46" t="s">
         <v>28</v>
@@ -12380,7 +12391,7 @@
       <c r="M48" s="43"/>
       <c r="N48" s="27"/>
     </row>
-    <row r="49" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="44" t="s">
         <v>24</v>
@@ -12408,7 +12419,7 @@
       <c r="M49" s="43"/>
       <c r="N49" s="27"/>
     </row>
-    <row r="50" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
@@ -12424,7 +12435,7 @@
       <c r="M50" s="43"/>
       <c r="N50" s="27"/>
     </row>
-    <row r="51" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27" t="s">
@@ -12442,7 +12453,7 @@
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
     </row>
-    <row r="52" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27" t="s">
@@ -12475,7 +12486,7 @@
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
     </row>
-    <row r="53" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27">
@@ -12494,7 +12505,7 @@
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
     </row>
-    <row r="54" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="47">
@@ -12531,7 +12542,7 @@
       <c r="M54" s="27"/>
       <c r="N54" s="27"/>
     </row>
-    <row r="55" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="59">
         <v>2017</v>
@@ -12582,7 +12593,7 @@
       </c>
       <c r="N55" s="27"/>
     </row>
-    <row r="56" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="59"/>
       <c r="C56" s="27" t="s">
@@ -12624,7 +12635,7 @@
       <c r="M56" s="27"/>
       <c r="N56" s="27"/>
     </row>
-    <row r="57" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="59"/>
       <c r="C57" s="27"/>
@@ -12646,7 +12657,7 @@
       <c r="M57" s="27"/>
       <c r="N57" s="27"/>
     </row>
-    <row r="58" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="59"/>
       <c r="C58" s="27"/>
@@ -12662,7 +12673,7 @@
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
     </row>
-    <row r="59" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="59"/>
       <c r="C59" s="27"/>
@@ -12678,7 +12689,7 @@
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
     </row>
-    <row r="60" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="59"/>
       <c r="C60" s="47">
@@ -12709,7 +12720,7 @@
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
     </row>
-    <row r="61" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="59"/>
       <c r="C61" s="27" t="s">
@@ -12730,7 +12741,7 @@
       </c>
       <c r="N61" s="27"/>
     </row>
-    <row r="62" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="59"/>
       <c r="C62" s="27" t="s">
@@ -12748,7 +12759,7 @@
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
     </row>
-    <row r="63" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="59"/>
       <c r="C63" s="27"/>
@@ -12764,7 +12775,7 @@
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
     </row>
-    <row r="64" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
@@ -12806,23 +12817,23 @@
   <sheetViews>
     <sheetView showZeros="0" zoomScale="35" zoomScaleNormal="35" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="24.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1"/>
-    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="3" customWidth="1"/>
-    <col min="4" max="8" width="23.90625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="20.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="1"/>
-    <col min="12" max="12" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="11.54296875" style="1"/>
-    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.6328125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
+    <col min="4" max="8" width="23.85546875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="20.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1"/>
+    <col min="12" max="12" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5703125" style="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="17.5703125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="87" t="s">
         <v>38</v>
@@ -12840,7 +12851,7 @@
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
-    <row r="2" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="87" t="s">
         <v>37</v>
@@ -12858,7 +12869,7 @@
       <c r="M2" s="43"/>
       <c r="N2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="27"/>
@@ -12874,7 +12885,7 @@
       <c r="M3" s="43"/>
       <c r="N3" s="27"/>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="64"/>
       <c r="C4" s="85"/>
@@ -12890,7 +12901,7 @@
       <c r="M4" s="43"/>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:23" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="32" t="s">
         <v>0</v>
@@ -12920,7 +12931,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="32" t="s">
         <v>3</v>
@@ -12968,7 +12979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="36"/>
       <c r="C7" s="75"/>
@@ -12996,7 +13007,7 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
     </row>
-    <row r="8" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="38">
         <v>3</v>
@@ -13051,7 +13062,7 @@
       </c>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="38">
         <v>3.5</v>
@@ -13103,7 +13114,7 @@
       </c>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="38">
         <v>4</v>
@@ -13155,7 +13166,7 @@
       </c>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="38">
         <v>4.5</v>
@@ -13207,7 +13218,7 @@
       </c>
       <c r="W11" s="18"/>
     </row>
-    <row r="12" spans="1:23" ht="25.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:23" ht="26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="38">
         <v>5</v>
@@ -13245,7 +13256,7 @@
       <c r="V12" s="23"/>
       <c r="W12" s="24"/>
     </row>
-    <row r="13" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="38">
         <v>5.5</v>
@@ -13275,7 +13286,7 @@
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="38">
         <v>6</v>
@@ -13305,7 +13316,7 @@
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="38">
         <v>6.5</v>
@@ -13335,7 +13346,7 @@
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="38">
         <v>7</v>
@@ -13368,7 +13379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="38">
         <v>7.5</v>
@@ -13403,7 +13414,7 @@
       </c>
       <c r="N17" s="27"/>
     </row>
-    <row r="18" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="38">
         <v>8</v>
@@ -13438,7 +13449,7 @@
       </c>
       <c r="N18" s="27"/>
     </row>
-    <row r="19" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="38">
         <v>8.5</v>
@@ -13473,7 +13484,7 @@
       </c>
       <c r="N19" s="27"/>
     </row>
-    <row r="20" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="38">
         <v>9</v>
@@ -13506,7 +13517,7 @@
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="38">
         <v>9.5</v>
@@ -13536,7 +13547,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="38">
         <v>10</v>
@@ -13566,7 +13577,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
     </row>
-    <row r="23" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="38">
         <v>10.5</v>
@@ -13596,7 +13607,7 @@
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
     </row>
-    <row r="24" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="38">
         <v>11</v>
@@ -13626,7 +13637,7 @@
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="25" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="38">
         <v>11.5</v>
@@ -13656,7 +13667,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="38">
         <v>12</v>
@@ -13686,7 +13697,7 @@
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
     </row>
-    <row r="27" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="38">
         <v>12.5</v>
@@ -13716,7 +13727,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="38">
         <v>13</v>
@@ -13746,7 +13757,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="38">
         <v>13.5</v>
@@ -13776,7 +13787,7 @@
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
     </row>
-    <row r="30" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="38">
         <v>14</v>
@@ -13806,7 +13817,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="38">
         <v>14.5</v>
@@ -13836,7 +13847,7 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="38">
         <v>15</v>
@@ -13866,7 +13877,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="38">
         <v>15.5</v>
@@ -13896,7 +13907,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="38">
         <v>16</v>
@@ -13926,7 +13937,7 @@
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="38">
         <v>16.5</v>
@@ -13956,7 +13967,7 @@
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="38">
         <v>17</v>
@@ -13986,7 +13997,7 @@
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
     </row>
-    <row r="37" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="38">
         <v>17.5</v>
@@ -14016,7 +14027,7 @@
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
     </row>
-    <row r="38" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="38">
         <v>18</v>
@@ -14046,7 +14057,7 @@
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
     </row>
-    <row r="39" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="38">
         <v>18.5</v>
@@ -14076,7 +14087,7 @@
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
     </row>
-    <row r="40" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="38">
         <v>19</v>
@@ -14094,7 +14105,7 @@
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
     </row>
-    <row r="41" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="38">
         <v>19.5</v>
@@ -14112,7 +14123,7 @@
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
     </row>
-    <row r="42" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="44"/>
       <c r="C42" s="77"/>
@@ -14128,7 +14139,7 @@
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
     </row>
-    <row r="43" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="46" t="s">
         <v>23</v>
@@ -14158,7 +14169,7 @@
       <c r="M43" s="27"/>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="38" t="s">
         <v>24</v>
@@ -14188,7 +14199,7 @@
       <c r="M44" s="47"/>
       <c r="N44" s="47"/>
     </row>
-    <row r="45" spans="1:14" s="25" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" s="25" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="38" t="s">
         <v>25</v>
@@ -14218,7 +14229,7 @@
       <c r="M45" s="47"/>
       <c r="N45" s="47"/>
     </row>
-    <row r="46" spans="1:14" s="26" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" s="26" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="51" t="s">
         <v>26</v>
@@ -14248,7 +14259,7 @@
       <c r="M46" s="50"/>
       <c r="N46" s="50"/>
     </row>
-    <row r="47" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="53" t="s">
         <v>27</v>
@@ -14278,7 +14289,7 @@
       <c r="M47" s="27"/>
       <c r="N47" s="27"/>
     </row>
-    <row r="48" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="46" t="s">
         <v>28</v>
@@ -14308,7 +14319,7 @@
       <c r="M48" s="27"/>
       <c r="N48" s="27"/>
     </row>
-    <row r="49" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="44" t="s">
         <v>24</v>
@@ -14338,7 +14349,7 @@
       <c r="M49" s="27"/>
       <c r="N49" s="27"/>
     </row>
-    <row r="50" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
@@ -14354,7 +14365,7 @@
       <c r="M50" s="27"/>
       <c r="N50" s="27"/>
     </row>
-    <row r="51" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27" t="s">
@@ -14372,7 +14383,7 @@
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
     </row>
-    <row r="52" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27" t="s">
@@ -14405,7 +14416,7 @@
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
     </row>
-    <row r="53" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27">
@@ -14424,7 +14435,7 @@
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
     </row>
-    <row r="54" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="47">
@@ -14461,7 +14472,7 @@
       <c r="M54" s="27"/>
       <c r="N54" s="27"/>
     </row>
-    <row r="55" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="59">
         <v>2017</v>
@@ -14512,7 +14523,7 @@
       </c>
       <c r="N55" s="27"/>
     </row>
-    <row r="56" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="59"/>
       <c r="C56" s="27" t="s">
@@ -14554,7 +14565,7 @@
       <c r="M56" s="27"/>
       <c r="N56" s="27"/>
     </row>
-    <row r="57" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="59"/>
       <c r="C57" s="27"/>
@@ -14576,7 +14587,7 @@
       <c r="M57" s="27"/>
       <c r="N57" s="27"/>
     </row>
-    <row r="58" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="59"/>
       <c r="C58" s="27"/>
@@ -14592,7 +14603,7 @@
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
     </row>
-    <row r="59" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="59"/>
       <c r="C59" s="27"/>
@@ -14608,7 +14619,7 @@
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
     </row>
-    <row r="60" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="59"/>
       <c r="C60" s="47">
@@ -14639,7 +14650,7 @@
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
     </row>
-    <row r="61" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="59"/>
       <c r="C61" s="27" t="s">
@@ -14657,7 +14668,7 @@
       <c r="M61" s="27"/>
       <c r="N61" s="27"/>
     </row>
-    <row r="62" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="59"/>
       <c r="C62" s="27" t="s">
@@ -14675,7 +14686,7 @@
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
     </row>
-    <row r="63" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="59"/>
       <c r="C63" s="27"/>
@@ -14691,7 +14702,7 @@
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
     </row>
-    <row r="64" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="23" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
